--- a/data/trans_dic/P32B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0246292932291576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009944405468207417</v>
+        <v>0.009944405468207414</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02180607728329902</v>
@@ -685,7 +685,7 @@
         <v>0.01752672795988987</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0547499112809215</v>
+        <v>0.05474991128092151</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01598694191261004</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003136303023232506</v>
+        <v>0.003148716349165546</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03078644169425142</v>
+        <v>0.03270056439032932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01009546080321657</v>
+        <v>0.01123285143691341</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005284733385368077</v>
+        <v>0.005293576025234116</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01094922974937439</v>
+        <v>0.01066922796477968</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00548973029209702</v>
+        <v>0.005494270387380769</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01538273729620758</v>
+        <v>0.0145161810028907</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006168287134516006</v>
+        <v>0.006804393979688654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02704332078038649</v>
+        <v>0.02774951869095165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009541031079253</v>
+        <v>0.01029276298230713</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.008179994539230793</v>
+        <v>0.006195178119852665</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03629047238015769</v>
+        <v>0.03251884139271675</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08583180308856964</v>
+        <v>0.08334657031289588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04871835894743939</v>
+        <v>0.05621515203682917</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05780559983496361</v>
+        <v>0.05759923478262921</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04997397577248657</v>
+        <v>0.05392710383816713</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0613733069659371</v>
+        <v>0.0574581314823018</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05378302466032198</v>
+        <v>0.04724929849817106</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1421924310589262</v>
+        <v>0.139795426941162</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03364821988287924</v>
+        <v>0.03179648909621409</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06422778474932385</v>
+        <v>0.06692543444498658</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03890259308844085</v>
+        <v>0.04075714940447166</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06863370010941984</v>
+        <v>0.06590935582070591</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03341667908325961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04375455474698294</v>
+        <v>0.04375455474698293</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.009414835241430369</v>
@@ -833,7 +833,7 @@
         <v>0.02876025888316944</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02926074204592433</v>
+        <v>0.02926074204592432</v>
       </c>
     </row>
     <row r="8">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001741510745744846</v>
+        <v>0.001740328003470471</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01740510706551615</v>
+        <v>0.01729114919749091</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01916344764703452</v>
+        <v>0.01781514273023087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01812747116757915</v>
+        <v>0.01665037294085487</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008130701327678264</v>
+        <v>0.008366065741354371</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002559078158110363</v>
+        <v>0.002696741985262578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0132551459180553</v>
+        <v>0.01348075129177749</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01674322413832429</v>
+        <v>0.01846755150627224</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01167796013071905</v>
+        <v>0.01307594497121913</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01494111663449562</v>
+        <v>0.01594042619481495</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05336347681115756</v>
+        <v>0.05353142443035131</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05604973804219006</v>
+        <v>0.05456339929416472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09882184866508559</v>
+        <v>0.09284168652322229</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0287585202355808</v>
+        <v>0.03273791984933409</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0312247293554368</v>
+        <v>0.03231592105726509</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04518339828595981</v>
+        <v>0.04696664128717543</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03000217531788303</v>
+        <v>0.03218697742883228</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01469049220336207</v>
+        <v>0.01640560654012462</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03970763593545708</v>
+        <v>0.03709362286710807</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04382872607042999</v>
+        <v>0.0443041683914303</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06096290397346433</v>
+        <v>0.06106151557574057</v>
       </c>
     </row>
     <row r="10">
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01657328092402206</v>
+        <v>0.01500172060898431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008801750415850232</v>
+        <v>0.008701861078519496</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00369279479792836</v>
+        <v>0.003685938925558739</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -1001,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002775837469394574</v>
+        <v>0.00277745603280128</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001403222163973811</v>
+        <v>0.001403541387257035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01171360849705362</v>
+        <v>0.01085353801332339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007021959990228293</v>
+        <v>0.006988720618681137</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.005866113147111866</v>
+        <v>0.0062710405262571</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01627281477882199</v>
+        <v>0.01460197512224306</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05023020019400588</v>
+        <v>0.04741904912855295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03355168538887728</v>
+        <v>0.0345503093366369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03383260498596082</v>
+        <v>0.03669725234259655</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0276874671012582</v>
+        <v>0.02190952468380153</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02055210584237411</v>
+        <v>0.01992049846767008</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02633142604189995</v>
+        <v>0.02453385723710776</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03890616084905761</v>
+        <v>0.03398802038261876</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0123892789319026</v>
+        <v>0.01327834773845641</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03238094794450856</v>
+        <v>0.03404422383504558</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0240147551291787</v>
+        <v>0.02468245738465901</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02670012560657395</v>
+        <v>0.02846409851564903</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01722774201246311</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01457819266172411</v>
+        <v>0.01457819266172412</v>
       </c>
     </row>
     <row r="14">
@@ -1117,13 +1117,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.005472763349410011</v>
+        <v>0.005363430716178171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01034281259023337</v>
+        <v>0.01051767433201333</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004875311730916918</v>
+        <v>0.004785881739675354</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005318615595644043</v>
+        <v>0.005634255790819976</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003501312311975581</v>
+        <v>0.004908880624503338</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007416244558615431</v>
+        <v>0.008074370977857756</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007409813386768401</v>
+        <v>0.00704641072397825</v>
       </c>
     </row>
     <row r="15">
@@ -1157,35 +1157,35 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.0328684159654991</v>
+        <v>0.03175399304368429</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04983126109498962</v>
+        <v>0.04756906457443174</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03093015513306375</v>
+        <v>0.03098307104196078</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03395087870635192</v>
+        <v>0.0423431180392217</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.02889734296527498</v>
+        <v>0.03385693485895001</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03318457025205764</v>
+        <v>0.03601433404192622</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0127089101703381</v>
+        <v>0.0103778550700039</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02206778137384331</v>
+        <v>0.02190534857023038</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03108467948866098</v>
+        <v>0.03241459573890883</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02850614538904824</v>
+        <v>0.02618474618217634</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.01775727267379243</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03235063560364993</v>
+        <v>0.03235063560364994</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01365797430832648</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01446732587816783</v>
+        <v>0.01445467803556978</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003516938486088785</v>
+        <v>0.003528689822037753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003858200206970821</v>
+        <v>0.003839605313355554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01754136097633966</v>
+        <v>0.01748522926428078</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1261,19 +1261,19 @@
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.01154269831559731</v>
+        <v>0.01177356409854914</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01202960641705966</v>
+        <v>0.01260399612448667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.002399340318445641</v>
+        <v>0.002358299815688047</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002645806227458114</v>
+        <v>0.002673633205615973</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01819683248955693</v>
+        <v>0.01822740598066724</v>
       </c>
     </row>
     <row r="18">
@@ -1284,36 +1284,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0730379806795234</v>
+        <v>0.07169827018687641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05094273040592437</v>
+        <v>0.05293630089001208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0456581719725182</v>
+        <v>0.04635094896216304</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05778695586406919</v>
+        <v>0.05483577526928996</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07390998167075025</v>
+        <v>0.06900628706474048</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.05469833428189042</v>
+        <v>0.05318860219400166</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05933121947118326</v>
+        <v>0.06027145383563485</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04028611588465558</v>
+        <v>0.03399529732560319</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02917061605916544</v>
+        <v>0.03056829190732416</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04909540854164723</v>
+        <v>0.04784294724262357</v>
       </c>
     </row>
     <row r="19">
@@ -1373,13 +1373,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.006196312283233281</v>
+        <v>0.006308692773229132</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.005917598883851058</v>
+        <v>0.006002355864287242</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
@@ -1389,13 +1389,13 @@
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
-        <v>0.004590237467577284</v>
+        <v>0.004623004517370156</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.005341403251849692</v>
+        <v>0.00536314074401824</v>
       </c>
     </row>
     <row r="21">
@@ -1407,29 +1407,29 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.074390876923809</v>
+        <v>0.07698982273270687</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02727318497633411</v>
+        <v>0.02954967514752768</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03674316315314537</v>
+        <v>0.03684613095688666</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.03222307853091855</v>
+        <v>0.03886972453406042</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.05355160013234574</v>
+        <v>0.05823563120582192</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02180785489233824</v>
+        <v>0.02187539151239849</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02868570323968356</v>
+        <v>0.02728685697211837</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.005047734743280497</v>
+        <v>0.004986626429805048</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.004096515632418888</v>
+        <v>0.004019086467820966</v>
       </c>
     </row>
     <row r="24">
@@ -1526,34 +1526,34 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07033409020098574</v>
+        <v>0.06934434032346866</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1290325133054751</v>
+        <v>0.1334813133625479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05074796888492505</v>
+        <v>0.04788588484904593</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05117106138018471</v>
+        <v>0.0465514917946336</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.08716029031912108</v>
+        <v>0.07454761491199323</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06028414144176982</v>
+        <v>0.06162313160710679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09824779832735406</v>
+        <v>0.1009874423997205</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02885740309377682</v>
+        <v>0.03442549882677046</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03980371582202737</v>
+        <v>0.04207011146116535</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>0.01715439910276291</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02071503823280385</v>
+        <v>0.02071503823280386</v>
       </c>
     </row>
     <row r="26">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02183725375963793</v>
+        <v>0.02158982205069808</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01491885692777258</v>
+        <v>0.01457452095551534</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01450507408791899</v>
+        <v>0.01517951670720425</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.005194030710306276</v>
+        <v>0.00575511526992899</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01159679876981761</v>
+        <v>0.01136709757893819</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01602602527691192</v>
+        <v>0.0166359273610199</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0128204070235271</v>
+        <v>0.01289779516664207</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01570336073091354</v>
+        <v>0.01526496235001995</v>
       </c>
     </row>
     <row r="27">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03748880031700936</v>
+        <v>0.03698935646267665</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02853495599252737</v>
+        <v>0.02880516240130222</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03031279102622324</v>
+        <v>0.03199657000424741</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01735462291319657</v>
+        <v>0.01778307388496512</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03183745372938492</v>
+        <v>0.03114575368916072</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02697281753136162</v>
+        <v>0.02703321172348632</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0222704794329203</v>
+        <v>0.022520919483899</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02826555243181266</v>
+        <v>0.02709389389658603</v>
       </c>
     </row>
     <row r="28">
@@ -1963,40 +1963,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8636</v>
+        <v>9173</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2587</v>
+        <v>2879</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2009</v>
+        <v>1958</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1736</v>
+        <v>1638</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2881</v>
+        <v>3179</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12549</v>
+        <v>12877</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4074</v>
+        <v>4395</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2283</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="7">
@@ -2007,40 +2007,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10187</v>
+        <v>9128</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24078</v>
+        <v>23381</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12485</v>
+        <v>14406</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9610</v>
+        <v>9575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9316</v>
+        <v>10053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11263</v>
+        <v>10545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9182</v>
+        <v>8066</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16045</v>
+        <v>15775</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15718</v>
+        <v>14853</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29805</v>
+        <v>31056</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16611</v>
+        <v>17403</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19155</v>
+        <v>18394</v>
       </c>
     </row>
     <row r="8">
@@ -2146,13 +2146,13 @@
         <v>872</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8142</v>
+        <v>8089</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7008</v>
+        <v>6515</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4522</v>
+        <v>4154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2161,22 +2161,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1834</v>
+        <v>1887</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1838</v>
+        <v>1937</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9030</v>
+        <v>9184</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9899</v>
+        <v>10918</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4700</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="11">
@@ -2187,40 +2187,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7484</v>
+        <v>7984</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24963</v>
+        <v>25042</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20497</v>
+        <v>19953</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24652</v>
+        <v>23161</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6249</v>
+        <v>7113</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6664</v>
+        <v>6897</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10191</v>
+        <v>10593</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4590</v>
+        <v>4924</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10550</v>
+        <v>11782</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27050</v>
+        <v>25269</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>25913</v>
+        <v>26194</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>24535</v>
+        <v>24575</v>
       </c>
     </row>
     <row r="12">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7094</v>
+        <v>6422</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3804</v>
+        <v>3761</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2350,13 +2350,13 @@
         <v>879</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7876</v>
+        <v>7298</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4780</v>
+        <v>4758</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2820</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="15">
@@ -2367,40 +2367,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6538</v>
+        <v>5867</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21502</v>
+        <v>20298</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14502</v>
+        <v>14934</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10544</v>
+        <v>11436</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6209</v>
+        <v>4914</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5022</v>
+        <v>4868</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6544</v>
+        <v>6097</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6581</v>
+        <v>5749</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7756</v>
+        <v>8313</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>21774</v>
+        <v>22892</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16349</v>
+        <v>16803</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12837</v>
+        <v>13685</v>
       </c>
     </row>
     <row r="16">
@@ -2504,13 +2504,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>2157</v>
+        <v>2114</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4021</v>
+        <v>4089</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1725</v>
+        <v>1693</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1128</v>
+        <v>1195</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2127</v>
+        <v>2982</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4858</v>
+        <v>5289</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4192</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="19">
@@ -2544,35 +2544,35 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>12954</v>
+        <v>12515</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19373</v>
+        <v>18493</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10942</v>
+        <v>10960</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4930</v>
+        <v>6148</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>7694</v>
+        <v>9015</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7036</v>
+        <v>7635</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5830</v>
+        <v>4760</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>13406</v>
+        <v>13307</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20361</v>
+        <v>21232</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16128</v>
+        <v>14814</v>
       </c>
     </row>
     <row r="20">
@@ -2675,16 +2675,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4923</v>
+        <v>4907</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2692,19 +2692,19 @@
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3074</v>
+        <v>3221</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7799</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="23">
@@ -2715,36 +2715,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13154</v>
+        <v>12912</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11808</v>
+        <v>12270</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13092</v>
+        <v>13291</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16218</v>
+        <v>15389</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5575</v>
+        <v>5206</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>8093</v>
+        <v>7870</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15161</v>
+        <v>15401</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13858</v>
+        <v>11694</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12143</v>
+        <v>12725</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21043</v>
+        <v>20506</v>
       </c>
     </row>
     <row r="24">
@@ -2848,13 +2848,13 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>957</v>
+        <v>974</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
@@ -2864,13 +2864,13 @@
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1531</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="27">
@@ -2882,29 +2882,29 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>11488</v>
+        <v>11890</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4841</v>
+        <v>5245</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7609</v>
+        <v>7631</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>2562</v>
+        <v>3090</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>11348</v>
+        <v>12341</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>5345</v>
+        <v>5361</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>8221</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="28">
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr"/>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31">
@@ -3045,34 +3045,34 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5144</v>
+        <v>5071</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11036</v>
+        <v>11417</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4843</v>
+        <v>4570</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5616</v>
+        <v>5109</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>2625</v>
+        <v>2245</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5405</v>
+        <v>5525</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>10797</v>
+        <v>11099</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>3809</v>
+        <v>4544</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>5567</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="32">
@@ -3175,40 +3175,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>44597</v>
+        <v>44092</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>29877</v>
+        <v>29187</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>24348</v>
+        <v>25480</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>5946</v>
+        <v>6588</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10490</v>
+        <v>10282</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>49536</v>
+        <v>51421</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>40350</v>
+        <v>40594</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>40564</v>
+        <v>39432</v>
       </c>
     </row>
     <row r="35">
@@ -3219,40 +3219,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>76561</v>
+        <v>75541</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>57145</v>
+        <v>57686</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>50883</v>
+        <v>53709</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>19867</v>
+        <v>20357</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>28799</v>
+        <v>28174</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>83372</v>
+        <v>83559</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>70093</v>
+        <v>70881</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>73014</v>
+        <v>69988</v>
       </c>
     </row>
     <row r="36">
